--- a/src/test/resources/Suites/Suites.xlsx
+++ b/src/test/resources/Suites/Suites.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\eclipse-workspace[New]\Bookstore\src\test\resources\Suites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1049027\eclipse-workspace\restassuredframework\src\test\resources\Suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEED6921-6FC5-46CE-8F96-FF090366467F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="405" windowWidth="19230" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="410" windowWidth="19230" windowHeight="10520"/>
   </bookViews>
   <sheets>
     <sheet name="APITestData" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Test Case #</t>
   </si>
@@ -95,11 +94,17 @@
   <si>
     <t>Bearer</t>
   </si>
+  <si>
+    <t>GetBooks</t>
+  </si>
+  <si>
+    <t>/BookStore/v1/Books</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,8 +150,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -420,30 +453,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,7 +517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -495,7 +528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -506,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -517,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -529,6 +562,14 @@
       </c>
       <c r="D5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Suites/Suites.xlsx
+++ b/src/test/resources/Suites/Suites.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Test Case #</t>
   </si>
@@ -99,6 +99,19 @@
   </si>
   <si>
     <t>/BookStore/v1/Books</t>
+  </si>
+  <si>
+    <t>AddBooks</t>
+  </si>
+  <si>
+    <t>{
+  "userId": "string",
+  "collectionOfIsbns": [
+    {
+      "isbn": "9781449325862"
+    }
+  ]
+}</t>
   </si>
 </sst>
 </file>
@@ -454,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,6 +585,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:13" ht="174" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/Suites/Suites.xlsx
+++ b/src/test/resources/Suites/Suites.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Test Case #</t>
   </si>
@@ -111,6 +111,18 @@
       "isbn": "9781449325862"
     }
   ]
+}</t>
+  </si>
+  <si>
+    <t>DeleteBook</t>
+  </si>
+  <si>
+    <t>/BookStore/v1/Book</t>
+  </si>
+  <si>
+    <t>{
+  "isbn": "9781449325862",
+  "userId": "string"
 }</t>
   </si>
 </sst>
@@ -467,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,6 +614,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
